--- a/data/Matrix.xlsx
+++ b/data/Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/law/OneDrive - United Nations Development Programme/Reports/UNDP Programme/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/law/Dropbox/repo/UNDP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A6CCC1-02B3-BC43-967A-756518057678}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3881C024-D22B-8D46-8501-DF65280BBB8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="460" windowWidth="30760" windowHeight="17100" activeTab="1" xr2:uid="{94372EA7-7236-0E4E-A782-54CA7AB2884F}"/>
+    <workbookView xWindow="2840" yWindow="460" windowWidth="30760" windowHeight="17100" activeTab="2" xr2:uid="{94372EA7-7236-0E4E-A782-54CA7AB2884F}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="56">
   <si>
     <t>SDG1</t>
   </si>
@@ -168,15 +168,12 @@
     <t>SDGs</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/Logos/SDGs.jpg</t>
+    <t>https://github.com/alwazzan/UNDP/blob/master/img/Logos/SDGs.jpg?raw=true</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -190,6 +187,15 @@
   </si>
   <si>
     <t>ImplementingAgent</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/alwazzan/UNDP/master/data/Matrix.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/alwazzan/UNDP/blob/master/img/</t>
   </si>
 </sst>
 </file>
@@ -595,14 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4339E-A268-574F-B503-55D5F96E488B}">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2081,12 +2087,12 @@
         <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>47</v>
@@ -2094,6 +2100,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AB17">
@@ -2104,6 +2120,8 @@
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" xr:uid="{0B5656E6-33FE-0542-8B60-69DC8C4D3D9E}"/>
     <hyperlink ref="C22" r:id="rId2" xr:uid="{170B593A-29D6-A846-9729-214CD435B135}"/>
+    <hyperlink ref="C24" r:id="rId3" xr:uid="{1DF8411E-8423-E24E-AFFB-F2C35CB7321F}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{9FD9AD84-085E-A040-952C-A16D3A83437E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2113,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF4DEB5-EC7B-5348-90CA-DDFD5A150140}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
@@ -2134,16 +2152,16 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
@@ -2158,23 +2176,23 @@
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B2,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/DGCD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/DGCD.jpg</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNODC",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNODC.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNODC.jpg</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2186,19 +2204,19 @@
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E3" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B3,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/KENO.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/KENO.jpg</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2210,23 +2228,23 @@
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D4" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B4,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/KEGI.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/KEGI.jpg</v>
       </c>
       <c r="F4" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNEP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNEP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNEP.jpg</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2238,23 +2256,23 @@
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D5" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E5" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B5,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/Youth.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/Youth.jpg</v>
       </c>
       <c r="F5" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNFPA",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNFPA.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNFPA.jpg</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,19 +2284,19 @@
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D6" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E6" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B6,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/Sports.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/Sports.jpg</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2290,19 +2308,19 @@
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D7" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E7" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B7,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NHDR.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NHDR.jpg</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2314,19 +2332,19 @@
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D8" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E8" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B8,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/PADA.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/PADA.jpg</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2338,23 +2356,23 @@
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D9" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E9" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B9,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/SDG5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/SDG5.jpg</v>
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNW",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNW.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNW.jpg</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2366,19 +2384,19 @@
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D10" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E10" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B10,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/JPOs.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/JPOs.jpg</v>
       </c>
       <c r="G10" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2390,19 +2408,19 @@
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D11" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E11" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B11,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/TRAF.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/TRAF.jpg</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2414,19 +2432,19 @@
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D12" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E12" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B12,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/SAB.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/SAB.jpg</v>
       </c>
       <c r="G12" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2438,19 +2456,19 @@
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D13" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E13" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B13,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ICDI KNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ICDI KNDP.jpg</v>
       </c>
       <c r="G13" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2462,19 +2480,19 @@
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D14" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E14" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B14,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/KPPC.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/KPPC.jpg</v>
       </c>
       <c r="G14" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,23 +2504,23 @@
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D15" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E15" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B15,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NAZAHA.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NAZAHA.jpg</v>
       </c>
       <c r="F15" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNODC",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNODC.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNODC.jpg</v>
       </c>
       <c r="G15" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2514,23 +2532,23 @@
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D16" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E16" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B16,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NCCAL.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NCCAL.jpg</v>
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNESCO",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNESCO.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNESCO.jpg</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2542,19 +2560,19 @@
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/GSSCPD.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
       </c>
       <c r="D17" t="str">
         <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/UNDP.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
       </c>
       <c r="E17" t="str">
         <f>CONCATENATE(Matrix!$C$21,$B17,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/MPU.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/MPU.jpg</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
       </c>
     </row>
   </sheetData>
@@ -2570,18 +2588,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C420DBDC-4328-8544-BCAE-CEF635883467}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8" style="4" customWidth="1"/>
-    <col min="7" max="19" width="12.83203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="12.83203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="63.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2655,72 +2674,72 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C2,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C2,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D2,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D2,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E2,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E2,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG3.jpg?raw=true</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F2,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F2,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G2,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G2,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H2,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H2,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I2,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I2,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J2,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J2,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K2,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K2,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L2,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L2,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M2,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M2,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N2,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N2,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O2,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O2,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P2,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P2,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q2,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q2,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R2,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R2,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S2,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S2,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>46</v>
@@ -2734,72 +2753,72 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C3,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C3,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D3,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D3,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E3,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E3,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F3,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F3,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G3,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G3,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H3,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H3,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I3,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I3,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG7.jpg?raw=true</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J3,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J3,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K3,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K3,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L3,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L3,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M3,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M3,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N3,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N3,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG12.jpg?raw=true</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O3,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O3,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG13.jpg?raw=true</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P3,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P3,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q3,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q3,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R3,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R3,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S3,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S3,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>46</v>
@@ -2813,72 +2832,72 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C4,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C4,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D4,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D4,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E4,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E4,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F4,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F4,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G4,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G4,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H4,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H4,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG6.jpg?raw=true</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I4,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I4,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG7.jpg?raw=true</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J4,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J4,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K4,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K4,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L4,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L4,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M4,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M4,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
       </c>
       <c r="N4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N4,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N4,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG12.jpg?raw=true</v>
       </c>
       <c r="O4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O4,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O4,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG13.jpg?raw=true</v>
       </c>
       <c r="P4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P4,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P4,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q4,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q4,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG15.jpg?raw=true</v>
       </c>
       <c r="R4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R4,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R4,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S4,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S4,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>46</v>
@@ -2892,72 +2911,72 @@
         <v>22</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C5,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C5,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D5,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D5,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E5,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E5,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F5,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F5,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G5,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G5,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H5,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H5,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I5,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I5,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J5,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J5,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K5,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K5,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L5,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L5,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M5,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M5,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N5,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N5,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O5,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O5,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P5,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P5,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q5,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q5,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R5,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R5,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S5,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S5,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>46</v>
@@ -2971,72 +2990,72 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C6,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C6,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D6,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D6,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E6,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E6,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F6,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F6,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G6,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G6,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H6,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H6,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I6,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I6,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J6,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J6,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K6,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K6,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L6,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L6,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M6,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M6,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N6,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N6,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O6,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O6,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P6,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P6,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q6,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q6,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R6,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R6,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S6,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S6,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>46</v>
@@ -3050,72 +3069,72 @@
         <v>23</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C7,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C7,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D7,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D7,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E7,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E7,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F7,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F7,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G7,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G7,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H7,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H7,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I7,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I7,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J7,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J7,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K7,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K7,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L7,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L7,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M7,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M7,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N7,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N7,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O7,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O7,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P7,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P7,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q7,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q7,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R7,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R7,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S7,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S7,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>46</v>
@@ -3129,72 +3148,72 @@
         <v>24</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C8,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C8,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D8,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D8,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E8,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E8,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F8,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F8,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G8,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G8,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H8,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H8,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I8,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I8,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J8,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J8,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG8.jpg?raw=true</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K8,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K8,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L8,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L8,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M8,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M8,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
       </c>
       <c r="N8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N8,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N8,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O8,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O8,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P8,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P8,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q8,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q8,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R8,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R8,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S8,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S8,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>46</v>
@@ -3208,72 +3227,72 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C9,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C9,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D9,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D9,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E9,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E9,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F9,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F9,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G9,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G9,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H9,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H9,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I9,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I9,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J9,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J9,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K9,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K9,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L9,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L9,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M9,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M9,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N9,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N9,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O9,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O9,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P9,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P9,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q9,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q9,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R9,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R9,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S9,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S9,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>46</v>
@@ -3287,72 +3306,72 @@
         <v>25</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C10,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C10,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D10,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D10,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E10,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E10,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F10,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F10,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G10,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G10,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H10,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H10,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I10,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I10,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J10,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J10,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K10,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K10,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L10,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L10,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M10,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M10,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N10,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N10,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O10,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O10,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P10,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P10,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q10,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q10,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R10,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R10,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S10,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S10,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>46</v>
@@ -3366,72 +3385,72 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C11,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C11,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D11,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D11,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E11,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E11,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F11,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F11,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G11,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G11,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H11,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H11,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I11,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I11,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J11,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J11,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K11,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K11,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L11,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L11,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M11,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M11,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N11,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N11,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O11,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O11,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P11,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P11,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q11,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q11,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R11,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R11,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S11,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S11,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>46</v>
@@ -3445,72 +3464,72 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C12,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C12,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D12,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D12,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E12,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E12,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F12,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F12,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G12,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G12,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H12,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H12,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I12,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I12,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J12,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J12,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG8.jpg?raw=true</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K12,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K12,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L12,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L12,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M12,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M12,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
       </c>
       <c r="N12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N12,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N12,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O12,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O12,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P12,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P12,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q12,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q12,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R12,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R12,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S12,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S12,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>46</v>
@@ -3524,72 +3543,72 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C13,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C13,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D13,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D13,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E13,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E13,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F13,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F13,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G13,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G13,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H13,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H13,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I13,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I13,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J13,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J13,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K13,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K13,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L13,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L13,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M13,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M13,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N13,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N13,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O13,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O13,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P13,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P13,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q13,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q13,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R13,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R13,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S13,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S13,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>46</v>
@@ -3603,72 +3622,72 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C14,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C14,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D14,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D14,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E14,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E14,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F14,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F14,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G14,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G14,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H14,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H14,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I14,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I14,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J14,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J14,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K14,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K14,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L14,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L14,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M14,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M14,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N14,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N14,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O14,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O14,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P14,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P14,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q14,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q14,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R14,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R14,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S14,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S14,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>46</v>
@@ -3682,72 +3701,72 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C15,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C15,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D15,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D15,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E15,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E15,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F15,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F15,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G15,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G15,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H15,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H15,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I15,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I15,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J15,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J15,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K15,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K15,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L15,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L15,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M15,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M15,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N15,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N15,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O15,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O15,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P15,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P15,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q15,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q15,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R15,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R15,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S15,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S15,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>46</v>
@@ -3761,72 +3780,72 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C16,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C16,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D16,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D16,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E16,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E16,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F16,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F16,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G16,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G16,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H16,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H16,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I16,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I16,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J16,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J16,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG8.jpg?raw=true</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K16,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K16,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L16,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L16,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
       </c>
       <c r="M16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M16,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M16,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N16,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N16,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O16,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O16,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P16,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P16,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q16,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q16,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R16,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R16,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S16,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S16,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>46</v>
@@ -3840,72 +3859,72 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C17,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG1.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!C17,"/",C$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D17,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG2.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!D17,"/",D$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E17,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG3.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!E17,"/",E$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F17,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG4.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!F17,"/",F$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G17,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!G17,"/",G$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H17,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG6.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!H17,"/",H$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I17,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG7.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!I17,"/",I$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J17,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG8.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!J17,"/",J$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K17,"/",K$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG9.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!K17,"/",K$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L17,"/",L$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG10.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!L17,"/",L$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
       </c>
       <c r="M17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M17,"/",M$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG11.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!M17,"/",M$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N17,"/",N$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG12.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!N17,"/",N$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
       </c>
       <c r="O17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O17,"/",O$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG13.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!O17,"/",O$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P17,"/",P$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG14.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!P17,"/",P$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q17,"/",Q$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG15.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!Q17,"/",Q$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R17,"/",R$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG16.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!R17,"/",R$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S17,"/",S$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/SDG17.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,Matrix!S17,"/",S$1,".jpg?raw=true")</f>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>46</v>
@@ -3914,7 +3933,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" xr:uid="{5B33452F-0E99-7D47-8F73-454C0DDFF426}"/>
-    <hyperlink ref="T3:T17" r:id="rId2" display="https://raw.githubusercontent.com/alwazzan/UNDP/master/img/Logos/SDGs.jpg" xr:uid="{0A377A75-2D3A-8543-A3B4-7EC70B9A3568}"/>
+    <hyperlink ref="T3:T17" r:id="rId2" display="https://github.com/alwazzan/UNDP/blob/master/img/Logos/SDGs.jpg?raw=true" xr:uid="{C4331826-5A93-6541-B7AB-2294A1BF2296}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3976,35 +3995,35 @@
       </c>
       <c r="C2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U2,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V2,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W2,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X2,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y2,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP5.jpg</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z2,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA2,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB2,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4016,35 +4035,35 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U3,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V3,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W3,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X3,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y3,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z3,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA3,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB3,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4056,35 +4075,35 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U4,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP1.jpg</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V4,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W4,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X4,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y4,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z4,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA4,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB4,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4096,35 +4115,35 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U5,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V5,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W5,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X5,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y5,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z5,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA5,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB5,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4136,35 +4155,35 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U6,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V6,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W6,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X6,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y6,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z6,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA6,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB6,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4176,35 +4195,35 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U7,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V7,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W7,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X7,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y7,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z7,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA7,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB7,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4216,35 +4235,35 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U8,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V8,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W8,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X8,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y8,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z8,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA8,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB8,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4256,35 +4275,35 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U9,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP1.jpg</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V9,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W9,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP3.jpg</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X9,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y9,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP5.jpg</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z9,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA9,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB9,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4296,35 +4315,35 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U10,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V10,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W10,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X10,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y10,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z10,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA10,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB10,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4336,35 +4355,35 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U11,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V11,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W11,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X11,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y11,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z11,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA11,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB11,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4376,35 +4395,35 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U12,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V12,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W12,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X12,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y12,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z12,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
       </c>
       <c r="I12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA12,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB12,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -4416,35 +4435,35 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U13,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V13,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W13,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X13,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y13,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z13,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA13,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB13,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4456,35 +4475,35 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U14,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V14,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W14,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X14,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y14,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z14,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA14,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
       </c>
       <c r="J14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB14,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4496,35 +4515,35 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U15,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP1.jpg</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V15,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
       </c>
       <c r="E15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W15,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP3.jpg</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X15,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y15,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP5.jpg</v>
       </c>
       <c r="H15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z15,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA15,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB15,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4536,35 +4555,35 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U16,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V16,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W16,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X16,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y16,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z16,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA16,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB16,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4576,35 +4595,35 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U17,"/",C$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V17,"/",D$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP2.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W17,"/",E$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP3.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X17,"/",F$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP4.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y17,"/",G$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP5.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
       </c>
       <c r="H17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z17,"/",H$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP6.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
       </c>
       <c r="I17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA17,"/",I$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/KNDP7.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB17,"/",J$1,".jpg")</f>
-        <v>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/ON/NewKuwait.jpg</v>
+        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
       </c>
     </row>
   </sheetData>

--- a/data/Matrix.xlsx
+++ b/data/Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/law/Dropbox/repo/UNDP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3881C024-D22B-8D46-8501-DF65280BBB8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1649046E-744F-E141-9125-EED0BA4C3BB3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="460" windowWidth="30760" windowHeight="17100" activeTab="2" xr2:uid="{94372EA7-7236-0E4E-A782-54CA7AB2884F}"/>
+    <workbookView xWindow="2840" yWindow="460" windowWidth="30760" windowHeight="17100" activeTab="1" xr2:uid="{94372EA7-7236-0E4E-A782-54CA7AB2884F}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Matrix SDG" sheetId="3" r:id="rId3"/>
     <sheet name="Matrix KNDP" sheetId="1" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="52">
   <si>
     <t>SDG1</t>
   </si>
@@ -168,12 +171,6 @@
     <t>SDGs</t>
   </si>
   <si>
-    <t>https://github.com/alwazzan/UNDP/blob/master/img/Logos/SDGs.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/alwazzan/UNDP/master/img/OFF/KNDP1.jpg</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -189,13 +186,7 @@
     <t>ImplementingAgent</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/alwazzan/UNDP/master/data/Matrix.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/alwazzan/UNDP/blob/master/img/</t>
+    <t>http://www.alwazzan.com/test/SDG/src/</t>
   </si>
 </sst>
 </file>
@@ -302,6 +293,943 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SDGWeight"/>
+      <sheetName val="Projects"/>
+      <sheetName val="Delivery"/>
+      <sheetName val="Project Staff"/>
+      <sheetName val="Project Consultants"/>
+      <sheetName val="Gantt"/>
+      <sheetName val="Custom Gantt"/>
+      <sheetName val="CoA"/>
+      <sheetName val="Matrix SDG"/>
+      <sheetName val="Matrix KNDP"/>
+      <sheetName val="Logos"/>
+      <sheetName val="Matrix"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="R4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S4" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T4" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R5" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="T5" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S6" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T6" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S7" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T7" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R8" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S8" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="T8" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S9" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T9" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R10" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S10" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="T10" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S11" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T11" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R12" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S12" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="T12" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S13" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T13" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R14" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S14" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="T14" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S15" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T15" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R16" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S16" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="T16" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>ON</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="P17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="Q17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="R17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="S17" t="str">
+            <v>OFF</v>
+          </cell>
+          <cell r="T17" t="str">
+            <v>ON</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>http://www.alwazzan.com/test/SDG/src/</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,14 +1529,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4339E-A268-574F-B503-55D5F96E488B}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,29 +3015,17 @@
         <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AB17">
@@ -2118,10 +3034,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{0B5656E6-33FE-0542-8B60-69DC8C4D3D9E}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{170B593A-29D6-A846-9729-214CD435B135}"/>
-    <hyperlink ref="C24" r:id="rId3" xr:uid="{1DF8411E-8423-E24E-AFFB-F2C35CB7321F}"/>
-    <hyperlink ref="C26" r:id="rId4" xr:uid="{9FD9AD84-085E-A040-952C-A16D3A83437E}"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{C3BE63B5-077D-A940-B8CC-0252569F89E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2131,17 +3044,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF4DEB5-EC7B-5348-90CA-DDFD5A150140}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2152,16 +3065,16 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
@@ -2175,24 +3088,24 @@
         <v>18</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B2,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/DGCD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B2,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/DGCD.jpg</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNODC",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNODC.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNODC",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNODC.jpg</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2203,20 +3116,20 @@
         <v>19</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B3,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/KENO.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B3,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/KENO.jpg</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2227,24 +3140,24 @@
         <v>20</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B4,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/KEGI.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B4,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/KEGI.jpg</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNEP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNEP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNEP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNEP.jpg</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,24 +3168,24 @@
         <v>22</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B5,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/Youth.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B5,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/Youth.jpg</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNFPA",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNFPA.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNFPA",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNFPA.jpg</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2283,20 +3196,20 @@
         <v>21</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B6,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/Sports.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B6,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/Sports.jpg</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,20 +3220,20 @@
         <v>23</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B7,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NHDR.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B7,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/NHDR.jpg</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2331,20 +3244,20 @@
         <v>24</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B8,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/PADA.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B8,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/PADA.jpg</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2355,24 +3268,24 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B9,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/SDG5.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B9,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/SDG5.jpg</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNW",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNW.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNW",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNW.jpg</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2383,20 +3296,20 @@
         <v>25</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B10,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/JPOs.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B10,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/JPOs.jpg</v>
       </c>
       <c r="G10" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2407,20 +3320,20 @@
         <v>37</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B11,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/TRAF.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B11,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/TRAF.jpg</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2431,20 +3344,20 @@
         <v>38</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B12,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/SAB.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B12,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/SAB.jpg</v>
       </c>
       <c r="G12" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2455,20 +3368,20 @@
         <v>39</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B13,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ICDI KNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B13,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/ICDI KNDP.jpg</v>
       </c>
       <c r="G13" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2479,20 +3392,20 @@
         <v>40</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B14,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/KPPC.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B14,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/KPPC.jpg</v>
       </c>
       <c r="G14" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2503,24 +3416,24 @@
         <v>41</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B15,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NAZAHA.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B15,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/NAZAHA.jpg</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNODC",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNODC.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNODC",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNODC.jpg</v>
       </c>
       <c r="G15" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2531,24 +3444,24 @@
         <v>42</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B16,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NCCAL.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B16,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/NCCAL.jpg</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNESCO",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNESCO.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNESCO",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNESCO.jpg</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2559,20 +3472,20 @@
         <v>43</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"GSSCPD",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/GSSCPD.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/GSSCPD",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/GSSCPD.jpg</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE(Matrix!$C$21,"UNDP",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/UNDP.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/UNDP",".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/UNDP.jpg</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(Matrix!$C$21,$B17,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/MPU.jpg</v>
+        <f>CONCATENATE(Matrix!$C$21,"Logos/",$B17,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/Logos/MPU.jpg</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>CONCATENATE(Matrix!$C$21,"NewKuwait",".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/NewKuwait.jpg</v>
       </c>
     </row>
   </sheetData>
@@ -2588,19 +3501,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C420DBDC-4328-8544-BCAE-CEF635883467}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="76.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="62.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="12.83203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="63.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="70.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" customWidth="1"/>
+    <col min="7" max="19" width="12.83203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8" style="1" customWidth="1"/>
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2674,75 +3586,76 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C2,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C2,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D2,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D2,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E2,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E2,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG3.jpg</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F2,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F2,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G2,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G2,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H2,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H2,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I2,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I2,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J2,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J2,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K2,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K2,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L2,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L2,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M2,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M2,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N2,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N2,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O2,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O2,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P2,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P2,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q2,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q2,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R2,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R2,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S2" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S2,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S2,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T2" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T2,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -2753,75 +3666,76 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C3,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C3,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D3,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D3,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E3,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E3,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F3,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F3,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G3,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G3,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H3,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H3,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I3,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I3,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG7.jpg</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J3,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J3,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K3,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K3,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L3,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L3,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M3,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M3,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N3,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N3,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG12.jpg</v>
       </c>
       <c r="O3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O3,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O3,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG13.jpg</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P3,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P3,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q3,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q3,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R3,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R3,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S3,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S3,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T3,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -2832,75 +3746,76 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C4,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C4,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D4,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D4,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E4,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E4,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F4,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F4,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G4,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G4,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H4,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H4,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG6.jpg</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I4,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I4,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG7.jpg</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J4,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J4,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K4,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K4,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L4,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L4,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M4,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M4,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG11.jpg</v>
       </c>
       <c r="N4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N4,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N4,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG12.jpg</v>
       </c>
       <c r="O4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O4,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O4,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG13.jpg</v>
       </c>
       <c r="P4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P4,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P4,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG14.jpg</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q4,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q4,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG15.jpg</v>
       </c>
       <c r="R4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R4,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R4,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S4,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S4,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T4,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2911,75 +3826,76 @@
         <v>22</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C5,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C5,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D5,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D5,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E5,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E5,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F5,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F5,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G5,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G5,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG5.jpg</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H5,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H5,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I5,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I5,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J5,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J5,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K5,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K5,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L5,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L5,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG10.jpg</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M5,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M5,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N5,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N5,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O5,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O5,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P5,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P5,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q5,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q5,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R5,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R5,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S5,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S5,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG17.jpg</v>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T5,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -2990,75 +3906,76 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C6,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C6,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D6,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D6,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E6,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E6,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F6,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F6,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G6,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G6,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H6,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H6,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I6,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I6,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J6,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J6,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K6,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K6,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L6,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L6,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M6,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M6,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N6,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N6,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O6,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O6,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P6,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P6,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q6,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q6,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R6,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R6,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S6,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S6,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T6,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -3069,75 +3986,76 @@
         <v>23</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C7,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C7,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D7,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D7,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E7,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E7,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F7,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F7,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G7,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G7,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H7,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H7,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I7,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I7,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J7,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J7,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K7,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K7,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L7,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L7,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M7,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M7,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N7,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N7,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O7,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O7,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P7,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P7,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q7,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q7,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R7,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R7,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S7,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S7,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T7,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -3148,75 +4066,76 @@
         <v>24</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C8,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C8,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D8,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D8,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E8,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E8,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F8,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F8,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G8,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G8,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H8,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H8,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I8,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I8,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J8,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J8,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG8.jpg</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K8,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K8,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L8,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L8,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG10.jpg</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M8,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M8,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG11.jpg</v>
       </c>
       <c r="N8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N8,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N8,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O8,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O8,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P8,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P8,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q8,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q8,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R8,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R8,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S8,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S8,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG17.jpg</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T8,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -3227,75 +4146,76 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C9,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C9,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D9,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D9,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E9,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E9,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F9,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F9,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G9,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G9,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG5.jpg</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H9,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H9,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I9,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I9,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J9,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J9,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K9,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K9,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L9,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L9,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M9,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M9,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N9,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N9,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O9,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O9,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P9,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P9,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q9,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q9,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R9,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R9,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S9,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S9,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T9,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -3306,75 +4226,76 @@
         <v>25</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C10,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C10,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D10,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D10,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E10,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E10,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F10,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F10,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G10,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G10,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H10,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H10,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I10,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I10,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J10,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J10,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K10,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K10,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L10,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L10,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M10,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M10,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N10,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N10,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O10,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O10,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P10,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P10,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q10,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q10,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R10,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R10,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S10,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S10,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG17.jpg</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T10,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -3385,75 +4306,76 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C11,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C11,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D11,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D11,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E11,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E11,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F11,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F11,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G11,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G11,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H11,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H11,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I11,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I11,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J11,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J11,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K11,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K11,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L11,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L11,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M11,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M11,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N11,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N11,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O11,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O11,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P11,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P11,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q11,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q11,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R11,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R11,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S11,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S11,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T11,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -3464,75 +4386,76 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C12,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C12,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D12,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D12,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E12,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E12,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F12,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F12,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G12,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G12,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H12,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H12,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I12,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I12,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J12,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J12,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG8.jpg</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K12,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K12,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L12,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L12,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG10.jpg</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M12,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M12,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG11.jpg</v>
       </c>
       <c r="N12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N12,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N12,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O12,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O12,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P12,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P12,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q12,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q12,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R12,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R12,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S12,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S12,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG17.jpg</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T12,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -3543,75 +4466,76 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C13,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C13,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D13,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D13,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E13,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E13,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F13,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F13,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G13,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G13,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG5.jpg</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H13,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H13,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I13,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I13,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J13,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J13,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K13,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K13,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L13,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L13,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M13,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M13,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N13,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N13,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O13,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O13,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P13,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P13,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q13,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q13,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R13,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R13,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S13,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S13,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T13,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -3622,75 +4546,76 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C14,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C14,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D14,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D14,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E14,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E14,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F14,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F14,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G14,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G14,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H14,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H14,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I14,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I14,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J14,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J14,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K14,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K14,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L14,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L14,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M14,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M14,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N14,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N14,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O14,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O14,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P14,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P14,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q14,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q14,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R14,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R14,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S14,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S14,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG17.jpg</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T14,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -3701,75 +4626,76 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C15,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C15,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D15,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D15,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E15,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E15,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F15,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F15,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G15,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G15,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H15,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H15,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I15,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I15,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J15,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J15,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K15,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K15,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L15,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L15,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M15,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M15,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N15,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N15,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O15,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O15,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P15,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P15,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q15,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q15,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R15,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R15,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S15,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S15,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T15,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -3780,75 +4706,76 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C16,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C16,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D16,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D16,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E16,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E16,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F16,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F16,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG4.jpg</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G16,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G16,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG5.jpg</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H16,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H16,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I16,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I16,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J16,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J16,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG8.jpg</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K16,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K16,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L16,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L16,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG10.jpg</v>
       </c>
       <c r="M16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M16,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M16,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG11.jpg</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N16,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N16,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O16,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O16,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P16,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P16,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q16,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q16,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R16,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R16,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S16,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S16,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG17.jpg</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T16,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3859,81 +4786,82 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!C17,"/",C$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG1.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!C17,"/",C$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG1.jpg</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!D17,"/",D$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG2.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!D17,"/",D$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG2.jpg</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!E17,"/",E$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG3.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!E17,"/",E$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG3.jpg</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!F17,"/",F$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG4.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!F17,"/",F$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG4.jpg</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!G17,"/",G$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/SDG5.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!G17,"/",G$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDG5.jpg</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!H17,"/",H$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG6.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!H17,"/",H$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG6.jpg</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!I17,"/",I$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG7.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!I17,"/",I$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG7.jpg</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!J17,"/",J$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG8.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!J17,"/",J$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG8.jpg</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!K17,"/",K$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG9.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!K17,"/",K$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG9.jpg</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!L17,"/",L$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG10.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!L17,"/",L$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG10.jpg</v>
       </c>
       <c r="M17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!M17,"/",M$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG11.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!M17,"/",M$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG11.jpg</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!N17,"/",N$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG12.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!N17,"/",N$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG12.jpg</v>
       </c>
       <c r="O17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!O17,"/",O$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG13.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!O17,"/",O$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG13.jpg</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!P17,"/",P$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG14.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!P17,"/",P$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG14.jpg</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!Q17,"/",Q$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG15.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!Q17,"/",Q$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG15.jpg</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!R17,"/",R$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG16.jpg?raw=true</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!R17,"/",R$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG16.jpg</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f>CONCATENATE(Matrix!$C$21,Matrix!S17,"/",S$1,".jpg?raw=true")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/SDG17.jpg?raw=true</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>46</v>
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!S17,"/",S$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/SDG17.jpg</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f>CONCATENATE([1]Matrix!$C$21,[1]Matrix!T17,"/",T$1,".jpg")</f>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/SDGs.jpg</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{5B33452F-0E99-7D47-8F73-454C0DDFF426}"/>
-    <hyperlink ref="T3:T17" r:id="rId2" display="https://github.com/alwazzan/UNDP/blob/master/img/Logos/SDGs.jpg?raw=true" xr:uid="{C4331826-5A93-6541-B7AB-2294A1BF2296}"/>
+    <hyperlink ref="T2" r:id="rId1" display="https://raw.githubusercontent.com/alwazzan/UNDP/master/img/Logos/SDGs.jpg" xr:uid="{5B33452F-0E99-7D47-8F73-454C0DDFF426}"/>
+    <hyperlink ref="T3:T17" r:id="rId2" display="https://raw.githubusercontent.com/alwazzan/UNDP/master/img/Logos/SDGs.jpg" xr:uid="{0A377A75-2D3A-8543-A3B4-7EC70B9A3568}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3995,35 +4923,35 @@
       </c>
       <c r="C2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U2,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V2,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP2.jpg</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W2,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X2,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y2,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP5.jpg</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z2,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA2,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J2" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB2,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4035,35 +4963,35 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U3,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V3,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP2.jpg</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W3,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X3,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP4.jpg</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y3,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z3,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP6.jpg</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA3,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J3" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB3,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4075,35 +5003,35 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U4,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP1.jpg</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V4,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W4,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X4,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP4.jpg</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y4,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z4,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP6.jpg</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA4,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J4" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB4,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4115,35 +5043,35 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U5,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V5,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W5,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X5,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y5,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z5,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA5,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB5,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4155,35 +5083,35 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U6,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V6,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W6,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X6,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y6,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z6,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP6.jpg</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA6,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J6" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB6,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4195,35 +5123,35 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U7,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V7,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W7,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X7,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y7,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z7,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA7,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J7" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB7,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4235,35 +5163,35 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U8,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V8,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W8,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X8,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y8,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z8,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA8,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J8" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB8,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4275,35 +5203,35 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U9,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP1.jpg</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V9,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP2.jpg</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W9,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP3.jpg</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X9,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP4.jpg</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y9,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP5.jpg</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z9,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA9,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB9,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4315,35 +5243,35 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U10,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V10,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W10,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X10,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y10,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z10,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA10,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J10" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB10,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4355,35 +5283,35 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U11,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V11,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W11,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X11,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y11,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z11,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA11,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J11" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB11,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4395,35 +5323,35 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U12,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V12,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W12,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X12,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y12,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z12,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP6.jpg</v>
       </c>
       <c r="I12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA12,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J12" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB12,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -4435,35 +5363,35 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U13,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V13,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W13,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X13,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y13,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z13,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA13,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB13,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4475,35 +5403,35 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U14,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V14,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W14,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X14,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y14,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z14,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA14,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP7.jpg</v>
       </c>
       <c r="J14" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB14,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4515,35 +5443,35 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U15,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP1.jpg</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V15,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP2.jpg</v>
       </c>
       <c r="E15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W15,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP3.jpg</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X15,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP4.jpg</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y15,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP5.jpg</v>
       </c>
       <c r="H15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z15,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA15,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J15" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB15,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4555,35 +5483,35 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U16,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V16,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W16,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X16,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y16,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z16,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA16,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J16" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB16,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4595,35 +5523,35 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!U17,"/",C$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP1.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP1.jpg</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!V17,"/",D$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP2.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP2.jpg</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!W17,"/",E$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP3.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP3.jpg</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!X17,"/",F$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP4.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP4.jpg</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Y17,"/",G$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/OFF/KNDP5.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/OFF/KNDP5.jpg</v>
       </c>
       <c r="H17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!Z17,"/",H$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP6.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP6.jpg</v>
       </c>
       <c r="I17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AA17,"/",I$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/KNDP7.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/KNDP7.jpg</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>CONCATENATE(Matrix!$C$21,Matrix!AB17,"/",J$1,".jpg")</f>
-        <v>https://github.com/alwazzan/UNDP/blob/master/img/ON/NewKuwait.jpg</v>
+        <v>http://www.alwazzan.com/test/SDG/src/ON/NewKuwait.jpg</v>
       </c>
     </row>
   </sheetData>
